--- a/Data/sets.xlsx
+++ b/Data/sets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28C1F0A-DAF7-4DD9-8C11-BA4AE4442A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2FCBC4-93ED-4A0D-B33B-4280A0F72195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modes" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t>Product group</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Fuel group</t>
   </si>
   <si>
-    <t>Electric</t>
-  </si>
-  <si>
     <t>Established</t>
   </si>
   <si>
@@ -145,6 +142,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>What to do with hardcoding of "rail" etc. in e.g., E_EDGES_RAIL etc.?</t>
+  </si>
+  <si>
+    <t>Demand data: link to the correct years (listed in this file). Now uses 2022, 2026, etc.</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -510,7 +513,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -521,7 +524,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -532,7 +535,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -592,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D3DC6D-0270-48DE-95C0-A9C75EDC81AD}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +620,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,10 +634,10 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,10 +651,10 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,7 +671,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -682,10 +685,10 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,10 +702,10 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -719,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -736,7 +739,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,7 +756,7 @@
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,7 +773,7 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -787,7 +790,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -804,7 +807,7 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -816,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -925,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBEDCC5-13DA-4CC9-85F0-59DE9811DB4C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,10 +944,10 @@
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -952,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1009,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A97C75A-0EB2-4FB9-B584-B61A7FA22D77}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,12 +1025,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Data/sets.xlsx
+++ b/Data/sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2FCBC4-93ED-4A0D-B33B-4280A0F72195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24EB259-2239-41CC-B3F0-D9238D177B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modes" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
   <si>
     <t>Product group</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Demand data: link to the correct years (listed in this file). Now uses 2022, 2026, etc.</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
   </si>
 </sst>
 </file>
@@ -197,11 +200,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E6BBB5-60E3-4450-BB33-88FED8069D81}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +505,9 @@
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -515,6 +519,9 @@
       <c r="C2" t="s">
         <v>32</v>
       </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -526,6 +533,9 @@
       <c r="C3" t="s">
         <v>33</v>
       </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -537,54 +547,9 @@
       <c r="C4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D4">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -595,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D3DC6D-0270-48DE-95C0-A9C75EDC81AD}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +718,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -819,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -928,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBEDCC5-13DA-4CC9-85F0-59DE9811DB4C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C2">
         <v>1</v>

--- a/Data/sets.xlsx
+++ b/Data/sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\STraM_ntnu_development\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24EB259-2239-41CC-B3F0-D9238D177B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286D3D6-CC95-4AC3-841C-6513F4497C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modes" sheetId="5" r:id="rId1"/>
@@ -560,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D3DC6D-0270-48DE-95C0-A9C75EDC81AD}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBEDCC5-13DA-4CC9-85F0-59DE9811DB4C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Data/sets.xlsx
+++ b/Data/sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1286D3D6-CC95-4AC3-841C-6513F4497C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8EDCB7-3071-4B6D-93C0-42295096A559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modes" sheetId="5" r:id="rId1"/>
@@ -63,12 +63,6 @@
     <t>Break bulk</t>
   </si>
   <si>
-    <t>Neo bulk (fast)</t>
-  </si>
-  <si>
-    <t>Neo bulk (slow)</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
@@ -151,6 +145,12 @@
   </si>
   <si>
     <t>Lifetime</t>
+  </si>
+  <si>
+    <t>Break bulk (fast)</t>
+  </si>
+  <si>
+    <t>Break bulk (slow)</t>
   </si>
 </sst>
 </file>
@@ -490,62 +490,62 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>25</v>
@@ -560,219 +560,219 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D3DC6D-0270-48DE-95C0-A9C75EDC81AD}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -784,20 +784,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -828,7 +828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -836,10 +836,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -847,40 +847,40 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -897,25 +897,25 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -937,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -948,7 +948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -959,7 +959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -983,29 +983,29 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Data/sets.xlsx
+++ b/Data/sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8EDCB7-3071-4B6D-93C0-42295096A559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F236C52-1E64-479D-8E7B-5B85114BFCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modes" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>Product group</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Break bulk (slow)</t>
+  </si>
+  <si>
+    <t>HFO</t>
+  </si>
+  <si>
+    <t>MGO</t>
   </si>
 </sst>
 </file>
@@ -200,10 +206,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D3DC6D-0270-48DE-95C0-A9C75EDC81AD}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,8 +721,8 @@
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -731,14 +738,14 @@
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
+      <c r="C10" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -749,9 +756,9 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
@@ -766,12 +773,29 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -784,7 +808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Data/sets.xlsx
+++ b/Data/sets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruben\GitHub\STraM_ntnu_development\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F236C52-1E64-479D-8E7B-5B85114BFCBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729C2D76-F5EF-4BE9-B906-16DF4DE59D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="modes" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>Product group</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>MGO</t>
+  </si>
+  <si>
+    <t>Technology group</t>
+  </si>
+  <si>
+    <t>Fossil</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Fuels: "technology group" is what we used to call "fuel group"</t>
   </si>
 </sst>
 </file>
@@ -206,11 +218,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,20 +576,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D3DC6D-0270-48DE-95C0-A9C75EDC81AD}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -592,10 +605,13 @@
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -606,13 +622,16 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -623,13 +642,16 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -640,13 +662,16 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -657,13 +682,16 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -674,13 +702,16 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -691,13 +722,16 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -708,47 +742,56 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -759,13 +802,16 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -775,14 +821,17 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -792,10 +841,13 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1001,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A97C75A-0EB2-4FB9-B584-B61A7FA22D77}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -1032,6 +1084,11 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
